--- a/SpectrumSuite_Documentacion/FormatoBaseDatos.xlsx
+++ b/SpectrumSuite_Documentacion/FormatoBaseDatos.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>IndVisible</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>DETALLE_SERVICIO_PARAMETROS</t>
+  </si>
+  <si>
+    <t>Obligatorio</t>
   </si>
 </sst>
 </file>
@@ -235,9 +238,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -250,9 +250,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,6 +258,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,241 +573,258 @@
     <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:15" s="2" customFormat="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="3">
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1">
-      <c r="A4" s="4">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="3">
         <v>42253934</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1">
-      <c r="A5" s="4">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="3">
         <v>10</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1">
-      <c r="A6" s="4">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="3">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -826,24 +846,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -870,31 +890,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -921,64 +941,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
